--- a/frontend-cemos/public/assets/content/planejamento/3-md-30-m-01/script/fc3.xlsx
+++ b/frontend-cemos/public/assets/content/planejamento/3-md-30-m-01/script/fc3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,504 +468,336 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>O que contêm os Planos de Mobilização Marítima, Terrestre e Aeroespacial (P Mob Mar, P Mob Ter e P Mob Aepc)?</t>
+          <t>O que caracteriza as Operações Conjuntas (Op Cj)?</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Contêm as ações estratégicas para o atendimento das carências das FS (necessidades não atendidas pela Logística) e correspondentes medidas de Desmobilização, conforme o item 3.1.1.</t>
+          <t>Caracterizam-se pelo emprego coordenado de elementos de mais de uma força singular, com propósitos interdependentes ou complementares, conforme o item 3.1.2.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Pág. 25</t>
+          <t>Pág. 41</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Cap. 3 - Planos de Mobilização das Forças Singulares</t>
+          <t>Cap. III - Operações Conjuntas das Forças Armadas</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Qual é o destino dos Planos de Mobilização (P Mob Mil) após a sua conclusão e assinatura?</t>
+          <t>Quais são os únicos Comandos Operacionais Conjuntos considerados permanentes?</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Serão enviados ao EMCFA para as providências cabíveis, nos termos do item 3.1.2.</t>
+          <t>O Comando de Operações Aeroespaciais (COMAE) e o Comando de Defesa Cibernética (ComDCiber), conforme o item 3.1.4.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Pág. 25</t>
+          <t>Pág. 41</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Cap. 3 - Planos de Mobilização das Forças Singulares</t>
+          <t>Cap. III - Operações Conjuntas das Forças Armadas</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Como é formado o título de um Plano de Mobilização de Força Singular?</t>
+          <t>Quais são os três tipos básicos de Comandos Operacionais que podem ser ativados?</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Pelo nome do plano (Marítima, Terrestre ou Aeroespacial), a letra da Força e o código do Plano Estratégico de Emprego Conjunto das Forças Armadas (PEECFA), conforme o item 3.3.1.1.</t>
+          <t>Comando do Teatro de Operações (Cmdo TO), Comando da Área de Operações (Cmdo A Op) e Comando da Zona de Defesa (Cmdo ZD), conforme o item 3.2.1.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Pág. 25</t>
+          <t>Pág. 41</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Cap. 3 - Planos de Mobilização das Forças Singulares</t>
+          <t>Cap. III - Operações Conjuntas das Forças Armadas</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Quais orientações devem ser seguidas na elaboração das Listas de Carências?</t>
+          <t>A quem compete a aprovação da delimitação das áreas de responsabilidade (TO, A Op e ZD)?</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Devem ser seguidas as orientações do Anexo V (Modelo de Listas de Carências) e as do Manual MD41-M-08, conforme o item 3.3.4.2.</t>
+          <t>Ao Comandante Supremo, assessorado pelo Ministro da Defesa, conforme o item 3.3.2.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Pág. 26</t>
+          <t>Pág. 42</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Cap. 3 - Planos de Mobilização das Forças Singulares</t>
+          <t>Cap. III - Operações Conjuntas das Forças Armadas</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Qual é a ação planejada na Fase de Preparo referente às encomendas educativas?</t>
+          <t>O que define um Teatro de Operações (TO) em contraste com uma Área de Operações?</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Propor sua colocação na Base Industrial de Defesa (BID), prioritariamente nas Empresas Estratégicas de Defesa (EED) e nas Empresas de Defesa (ED), conforme o item 3.3.5.1, alínea "c".</t>
+          <t>É a parte do teatro de guerra necessária à condução das operações militares de grande vulto e apoio logístico, conforme o item 3.3.3.1.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Pág. 26</t>
+          <t>Pág. 42</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Cap. 3 - Planos de Mobilização das Forças Singulares</t>
+          <t>Cap. III - Operações Conjuntas das Forças Armadas</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Qual a finalidade do Banco de Talentos (BT) a ser criado e mantido na fase de Preparo?</t>
+          <t>O que é a Zona de Defesa (ZD) no contexto das áreas de responsabilidade?</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Cadastrar reservistas ou não com qualificações específicas de interesse da Mobilização para viabilizar possíveis convocações, conforme o item 3.3.5.1, alínea "f".</t>
+          <t>Parte do território nacional (Zona do Interior) onde um Comando planejará e coordenará ações de defesa territorial, conforme o item 3.3.5.1.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Pág. 26</t>
+          <t>Pág. 42</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Cap. 3 - Planos de Mobilização das Forças Singulares</t>
+          <t>Cap. III - Operações Conjuntas das Forças Armadas</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Que tipos de estruturas físicas devem ser cadastradas na fase de Preparo da Mobilização?</t>
+          <t>O que se entende por Estado Final Desejado (EFD) nas operações conjuntas?</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Estruturas em locais de interesse logístico capazes de prestar apoios como depósitos, combustíveis, paióis, hospitais, energia e alimentação, conforme o item 3.3.5.1, alínea "k".</t>
+          <t>É a situação política ou militar a ser alcançada ao final das operações que indica se o efeito desejado foi alcançado, conforme o item 3.4.3.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Pág. 27</t>
+          <t>Pág. 43</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Cap. 3 - Planos de Mobilização das Forças Singulares</t>
+          <t>Cap. III - Operações Conjuntas das Forças Armadas</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>O que deve ser feito na Fase de Execução com as ações formuladas e não solucionadas na Fase de Preparo?</t>
+          <t>Qual é o objetivo principal do planejamento de atividades de assuntos civis?</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Devem ser impulsionadas, conforme o item 3.3.6, alínea "a".</t>
+          <t>Reduzir os pontos de fricção entre a população civil e a força militar, minimizando incertezas, conforme o item 3.4.7.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Pág. 27</t>
+          <t>Pág. 43</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Cap. 3 - Planos de Mobilização das Forças Singulares</t>
+          <t>Cap. III - Operações Conjuntas das Forças Armadas</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Qual é o objetivo das campanhas psicossociais desenvolvidas na Fase de Execução da Mobilização?</t>
+          <t>Quais exemplos de ações de dissimulação podem ser adotadas para iludir forças oponentes?</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Obter o apoio no País e no exterior aos objetivos idealizados nos planejamentos de emprego das FS para atender à emergência, conforme o item 3.3.6, alínea "b".</t>
+          <t>Guerra eletrônica, desinformação, operações psicológicas, defesa cibernética e ações diversionárias, conforme o item 3.4.10.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Pág. 27</t>
+          <t>Pág. 43</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Cap. 3 - Planos de Mobilização das Forças Singulares</t>
+          <t>Cap. III - Operações Conjuntas das Forças Armadas</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Na Fase de Preparo da Desmobilização, qual ação deve ser tomada em relação às carências incluídas no P Mob?</t>
+          <t>Como a concentração estratégica das forças pode contribuir para a dissimulação?</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Acompanhar a evolução das carências e informar ao MD quais necessitam de medidas de desmobilização, conforme o item 3.3.7, alínea "a".</t>
+          <t>Estabelecendo locais de concentração de modo a não revelar a direção do esforço principal das operações, conforme o item 3.4.11.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Pág. 28</t>
+          <t>Pág. 44</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Cap. 3 - Planos de Mobilização das Forças Singulares</t>
+          <t>Cap. III - Operações Conjuntas das Forças Armadas</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Quando são colocadas em prática as atividades planejadas para a Fase de Execução da Desmobilização?</t>
+          <t>Quem controla as ações prévias à ativação de um Comando Operacional (como Inteligência e Op Esp)?</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Com a proximidade do fim dos motivos que determinaram a Mobilização, de forma ordenada e gradativa, conforme o item 3.3.8.</t>
+          <t>O EMCFA, mediante autorização do Comandante Supremo, conforme o item 3.4.13.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Pág. 28</t>
+          <t>Pág. 44</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Cap. 3 - Planos de Mobilização das Forças Singulares</t>
+          <t>Cap. III - Operações Conjuntas das Forças Armadas</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Qual proposta de legislação específica é mencionada para a fase de Preparo da Desmobilização?</t>
+          <t>Qual a diferença entre meios sob "Comando Operacional" e meios sob "Controle Operacional"?</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>A proposta de minuta de texto do decreto de Desmobilização, conforme o item 3.3.7, alínea "b".</t>
+          <t>Comando Operacional refere-se a meios efetivamente adjudicados; Controle Operacional refere-se a meios para missões/tarefas específicas, conforme o item 3.4.14.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Pág. 28</t>
+          <t>Pág. 44</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Cap. 3 - Planos de Mobilização das Forças Singulares</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Qual providência deve ser proposta na Execução da Desmobilização em relação aos contratos de produção?</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Propor o cancelamento oportuno dos contratos de produção de artigos destinados às necessidades de mobilização, conforme o item 3.3.8, alínea "h".</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Pág. 29</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Cap. 3 - Planos de Mobilização das Forças Singulares</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Com quem os órgãos de mobilização das FS devem se ligar para coordenar ações de planejamento e execução?</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Com a Célula de Coordenação de Mobilização (CeCM) do Centro de Coordenação de Logística e Mobilização (CCLM) do MD, conforme o item 3.3.9.2.</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Pág. 29</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Cap. 3 - Planos de Mobilização das Forças Singulares</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Como são tratadas as demandas identificadas que podem ser atendidas no prazo de até 3 anos?</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Não serão consideradas carências e comporão um planejamento logístico encaminhado ao MD independentemente dos planos de Mobilização, conforme o item 3.3.9.3.</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Pág. 29</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Cap. 3 - Planos de Mobilização das Forças Singulares</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Que dado financeiro deve obrigatoriamente constar no corpo dos P Mob?</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>O custo estimado total das carências, conforme o item 3.3.9.7.</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Pág. 30</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Cap. 3 - Planos de Mobilização das Forças Singulares</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Qual documento é considerado o principal anexo ao Plano de Mobilização Militar (P Mob Mil)?</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>A Lista de Carências, conforme o item 3.3.11.</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Pág. 30</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Cap. 3 - Planos de Mobilização das Forças Singulares</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Quem deve assinar o Plano de Mobilização da Força Singular?</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>O Chefe do Estado-Maior da FS, contendo a assinatura em anuência do Comandante da Força, conforme o item 3.3.12.</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Pág. 30</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Cap. 3 - Planos de Mobilização das Forças Singulares</t>
+          <t>Cap. III - Operações Conjuntas das Forças Armadas</t>
         </is>
       </c>
     </row>
